--- a/biology/Médecine/Arvo_Ylppö/Arvo_Ylppö.xlsx
+++ b/biology/Médecine/Arvo_Ylppö/Arvo_Ylppö.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arvo_Ylpp%C3%B6</t>
+          <t>Arvo_Ylppö</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arvo Henrik Ylppö (né le 27 octobre 1887 à Akaa — mort le 27 janvier 1992 à Helsinki) est un pédiatre finlandais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arvo Henrik Ylppö (né le 27 octobre 1887 à Akaa — mort le 27 janvier 1992 à Helsinki) est un pédiatre finlandais.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arvo_Ylpp%C3%B6</t>
+          <t>Arvo_Ylppö</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arvo Ylppö naît en 1887 à Akaa dans une famille d'agriculteurs. 
 Il est apparemment né prématuré et a gardé une petite taille tout au long de sa vie. 
-En 1906, il passe son baccalauréat au lycée de Tampere[1].
+En 1906, il passe son baccalauréat au lycée de Tampere.
 En 1906, il entre à l'Université d'Helsinki et décide de se spécialiser en médecine pédiatrique.
 En 1912, il étudie au foyer pour enfants de l’impératrice Auguste Viktoria (de) à Berlin, où il redige sa thèse sur le métabolisme de la bilirubine chez les nourrissons.
-En mars 1914, il soutient sa thèse de docteur en médecine à l'Université d'Helsinki[1].
+En mars 1914, il soutient sa thèse de docteur en médecine à l'Université d'Helsinki.
 À son retour en Finlande, en 1920, il devient professeur à l'hôpital universitaire d'Helsinki. En 1925, son poste devint celui de professeur de pédiatrie.
-Arvo Ylppö a pris sa retraite en 1957 mais continue à parrainer de nombreuses initiatives en faveur de la santé des enfants. Il est décédé en janvier 1992 à l'âge de 104 ans[2].
-Il est enterré au cimetière d'Hietaniemi[3].
+Arvo Ylppö a pris sa retraite en 1957 mais continue à parrainer de nombreuses initiatives en faveur de la santé des enfants. Il est décédé en janvier 1992 à l'âge de 104 ans.
+Il est enterré au cimetière d'Hietaniemi.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arvo_Ylpp%C3%B6</t>
+          <t>Arvo_Ylppö</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,10 +564,12 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est considéré comme le père du système de santé finlandais grâce à ses efforts dans la réduction de la mortalité infantile du pays. 
-L'école Arvo Ylpö de Toijala et le parc d'Arvo Ylppö à Helsinki, ainsi que la rue Arvo Ylpö et le bâtiment Arvo à Tampere ont été nommés en son honneur[4].
+L'école Arvo Ylpö de Toijala et le parc d'Arvo Ylppö à Helsinki, ainsi que la rue Arvo Ylpö et le bâtiment Arvo à Tampere ont été nommés en son honneur.
 </t>
         </is>
       </c>
